--- a/dev-topics-codingexams/dev-topics-evernote-max-operators/analysis/performance.xlsx
+++ b/dev-topics-codingexams/dev-topics-evernote-max-operators/analysis/performance.xlsx
@@ -1,42 +1,159 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="300" yWindow="120" windowWidth="22290" windowHeight="9218" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Raw" sheetId="5" r:id="rId1"/>
+    <sheet name="Raw1" sheetId="3" r:id="rId2"/>
+    <sheet name="Raw0" sheetId="1" r:id="rId3"/>
+    <sheet name="Prepared" sheetId="2" r:id="rId4"/>
+    <sheet name="Distribution" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <definedNames>
+    <definedName name="runanalyzer" localSheetId="4">Distribution!$A$1:$B$25</definedName>
+    <definedName name="runperf" localSheetId="3">Prepared!$A$1:$F$37</definedName>
+    <definedName name="runperf" localSheetId="0">Raw!$A$1:$F$37</definedName>
+    <definedName name="runperf" localSheetId="2">Raw0!$A$1:$F$25</definedName>
+    <definedName name="runperf" localSheetId="1">'Raw1'!$A$1:$F$25</definedName>
+    <definedName name="runperf_1" localSheetId="3">Prepared!$A$1:$F$37</definedName>
+    <definedName name="runperf_2" localSheetId="3">Prepared!$A$1:$F$37</definedName>
+  </definedNames>
+  <calcPr calcId="145621" iterate="1"/>
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="runanalyzer" type="6" refreshedVersion="4" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="D:\GitHub\DemoDev\dev-topics-codingexams\dev-topics-evernote-max-operators\analysis\runanalyzer.csv" tab="0" comma="1" consecutive="1">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" name="runperf" type="6" refreshedVersion="4" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="D:\GitHub\DemoDev\dev-topics-codingexams\dev-topics-evernote-max-operators\analysis\runperf.csv" tab="0" comma="1" consecutive="1">
+      <textFields count="6">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="3" name="runperf1" type="6" refreshedVersion="4" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="D:\GitHub\DemoDev\dev-topics-codingexams\dev-topics-evernote-max-operators\analysis\runperf.csv" tab="0" comma="1" consecutive="1">
+      <textFields count="6">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="4" name="runperf2" type="6" refreshedVersion="4" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="D:\GitHub\DemoDev\dev-topics-codingexams\dev-topics-evernote-max-operators\analysis\runperf.csv" tab="0" comma="1" consecutive="1">
+      <textFields count="6">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="5" name="runperf21" type="6" refreshedVersion="4" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="D:\GitHub\DemoDev\dev-topics-codingexams\dev-topics-evernote-max-operators\analysis\runperf.csv" tab="0" comma="1" consecutive="1">
+      <textFields count="6">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="6" name="runperf3" type="6" refreshedVersion="4" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="D:\GitHub\DemoDev\dev-topics-codingexams\dev-topics-evernote-max-operators\analysis\runperf.csv" tab="0" comma="1" consecutive="1">
+      <textFields count="6">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="7" name="runperf31" type="6" refreshedVersion="4" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="D:\GitHub\DemoDev\dev-topics-codingexams\dev-topics-evernote-max-operators\analysis\runperf.csv" tab="0" comma="1" consecutive="1">
+      <textFields count="6">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="14">
+  <si>
+    <t>algo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> days</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> findTm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sortTm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> totalTm</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>Event Queue</t>
+  </si>
   <si>
     <t>Binning</t>
   </si>
   <si>
-    <t>Events</t>
+    <t xml:space="preserve"> Hour</t>
   </si>
   <si>
-    <t>Sort</t>
+    <t xml:space="preserve"> Count</t>
   </si>
   <si>
-    <t>Find</t>
+    <t xml:space="preserve"> algo</t>
   </si>
   <si>
-    <t>Days</t>
+    <t>MAP_BIN</t>
   </si>
   <si>
-    <t>Call Volume</t>
+    <t>LINEAR_BIN</t>
   </si>
   <si>
-    <t>Note: Max=</t>
+    <t>EVENT_QUEUE</t>
   </si>
 </sst>
 </file>
@@ -85,18 +202,18 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -119,6 +236,37 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Search</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Time vs Days of Input @ 250,000 Calls Daily      </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18140712180065224"/>
+          <c:y val="1.7334775926409553E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
@@ -126,35 +274,35 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.5109759754186854E-2"/>
-          <c:y val="1.9821417473548042E-2"/>
-          <c:w val="0.86621441341429795"/>
-          <c:h val="0.87932060583941796"/>
+          <c:x val="5.8162343204032012E-2"/>
+          <c:y val="1.8411439419267324E-2"/>
+          <c:w val="0.91958005249343833"/>
+          <c:h val="0.92318941830660628"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$2</c:f>
+              <c:f>Prepared!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Binning</c:v>
+                  <c:v>EVENT_QUEUE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$8</c:f>
+              <c:f>Prepared!$B$2:$B$13</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -165,110 +313,76 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>75</c:v>
-                </c:pt>
                 <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$8</c:f>
+              <c:f>Prepared!$E$2:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.14699999999999999</c:v>
+                  <c:v>0.13600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.63600000000000001</c:v>
+                  <c:v>0.89200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.839</c:v>
+                  <c:v>1.6439999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.7770000000000001</c:v>
+                  <c:v>3.2749999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.74</c:v>
+                  <c:v>4.1100000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.683999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Events</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$3:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$3:$D$8</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.157</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.1240000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.0529999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10.840999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.9019999999999992</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10.121</c:v>
+                  <c:v>4.9870000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.7910000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.6180000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.8029999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.5220000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.407</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.127000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -277,24 +391,24 @@
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$2</c:f>
+              <c:f>Prepared!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sort</c:v>
+                  <c:v> sortTm</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$8</c:f>
+              <c:f>Prepared!$B$2:$B$13</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -305,40 +419,76 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>75</c:v>
-                </c:pt>
                 <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$3:$F$8</c:f>
+              <c:f>Prepared!$D$2:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>9.7000000000000003E-2</c:v>
+                  <c:v>8.4000000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.68100000000000005</c:v>
+                  <c:v>0.54700000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2589999999999999</c:v>
+                  <c:v>1.0009999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1509999999999998</c:v>
+                  <c:v>1.9990000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.6319999999999997</c:v>
+                  <c:v>2.516</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.2560000000000002</c:v>
+                  <c:v>3.0720000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5609999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0549999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.601</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.0739999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.5869999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.133</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -347,24 +497,24 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="3"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$2</c:f>
+              <c:f>Prepared!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Find</c:v>
+                  <c:v> findTm</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$8</c:f>
+              <c:f>Prepared!$B$2:$B$13</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -375,40 +525,288 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>75</c:v>
-                </c:pt>
                 <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$3:$G$8</c:f>
+              <c:f>Prepared!$C$2:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.06</c:v>
+                  <c:v>5.1999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.443</c:v>
+                  <c:v>0.34599999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.79300000000000004</c:v>
+                  <c:v>0.64300000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.6890000000000001</c:v>
+                  <c:v>1.276</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.27</c:v>
+                  <c:v>1.593</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.8660000000000001</c:v>
+                  <c:v>1.915</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5630000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.202</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.448</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.82</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.9940000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Prepared!$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MAP_BIN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Prepared!$B$26:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Prepared!$E$26:$E$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6619999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.1539999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0750000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.056</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.552</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.7309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.3559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.879</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.1189999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.2709999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Prepared!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LINEAR_BIN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Prepared!$B$14:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Prepared!$E$14:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.107</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.215</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.372</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.44800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.495</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.60699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.65500000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -423,15 +821,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="41603072"/>
-        <c:axId val="41552128"/>
+        <c:axId val="125180544"/>
+        <c:axId val="125195008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="41603072"/>
+        <c:axId val="125180544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="110"/>
-          <c:min val="0"/>
+          <c:max val="120"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -445,33 +842,34 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1050"/>
                   <a:t>Days</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Monitored</a:t>
+                  <a:rPr lang="en-US" sz="1050" baseline="0"/>
+                  <a:t> Examined</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US" sz="1050"/>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41552128"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="125195008"/>
+        <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="10"/>
-        <c:minorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="41552128"/>
+        <c:axId val="125195008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="15"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -485,7 +883,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" b="1"/>
+                  <a:rPr lang="en-US" sz="1050" b="1"/>
                   <a:t>Seconds</a:t>
                 </a:r>
               </a:p>
@@ -498,9 +896,11 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41603072"/>
+        <c:crossAx val="125180544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="0.5"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -509,10 +909,331 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15297758779136808"/>
-          <c:y val="0.1095051531925869"/>
-          <c:w val="0.12958550172675992"/>
-          <c:h val="0.23183233991133653"/>
+          <c:x val="9.5553902387968417E-2"/>
+          <c:y val="0.48538676442897055"/>
+          <c:w val="0.14901489461056633"/>
+          <c:h val="0.17650476706517101"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> Active Call</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Count vs Hour of</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Day</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.50980640118884546"/>
+          <c:y val="2.8811520978593519E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.2972486006683648E-2"/>
+          <c:y val="3.866364956519306E-2"/>
+          <c:w val="0.88926598687142033"/>
+          <c:h val="0.89714539079942024"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Distribution!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Distribution!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Distribution!$B$2:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1601</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>637</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>616</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>618</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3591</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3599</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3814</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3640</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6489</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3759</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3772</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3599</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3571</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2767</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3615</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3603</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3930</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3663</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3509</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3508</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>543</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1833</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="124930688"/>
+        <c:axId val="124936576"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="124930688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="23"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="124936576"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="124936576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="6500"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="124930688"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="500"/>
+        <c:minorUnit val="100"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.7236620111542319"/>
+          <c:y val="0.75112769503042853"/>
+          <c:w val="0.10094557526488775"/>
+          <c:h val="5.7888470929981957E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -533,20 +1254,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>23811</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>166689</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>619126</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>609601</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -562,6 +1283,69 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>7142</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="runperf" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="runperf" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="runperf" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="runperf_2" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="runperf_1" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="runperf" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="runanalyzer" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -851,202 +1635,2802 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G10"/>
+  <dimension ref="A1:F37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection sqref="A1:F37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="12.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D2" s="4">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="F2" s="1">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3">
+        <v>20</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1.6439999999999999</v>
+      </c>
+      <c r="F4" s="1">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3">
+        <v>40</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1.276</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1.9990000000000001</v>
+      </c>
+      <c r="E5" s="4">
+        <v>3.2749999999999999</v>
+      </c>
+      <c r="F5" s="1">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3">
+        <v>50</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1.593</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2.516</v>
+      </c>
+      <c r="E6" s="4">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="F6" s="1">
+        <v>12500000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3">
+        <v>60</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1.915</v>
+      </c>
+      <c r="D7" s="4">
+        <v>3.0720000000000001</v>
+      </c>
+      <c r="E7" s="4">
+        <v>4.9870000000000001</v>
+      </c>
+      <c r="F7" s="1">
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3">
+        <v>70</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2.23</v>
+      </c>
+      <c r="D8" s="4">
+        <v>3.5609999999999999</v>
+      </c>
+      <c r="E8" s="4">
+        <v>5.7910000000000004</v>
+      </c>
+      <c r="F8" s="1">
+        <v>17500000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3">
+        <v>80</v>
+      </c>
+      <c r="C9" s="4">
+        <v>2.5630000000000002</v>
+      </c>
+      <c r="D9" s="4">
+        <v>4.0549999999999997</v>
+      </c>
+      <c r="E9" s="4">
+        <v>6.6180000000000003</v>
+      </c>
+      <c r="F9" s="1">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3">
+        <v>90</v>
+      </c>
+      <c r="C10" s="4">
+        <v>3.202</v>
+      </c>
+      <c r="D10" s="4">
+        <v>4.601</v>
+      </c>
+      <c r="E10" s="4">
+        <v>7.8029999999999999</v>
+      </c>
+      <c r="F10" s="1">
+        <v>22500000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="3">
+        <v>100</v>
+      </c>
+      <c r="C11" s="4">
+        <v>3.448</v>
+      </c>
+      <c r="D11" s="4">
+        <v>5.0739999999999998</v>
+      </c>
+      <c r="E11" s="4">
+        <v>8.5220000000000002</v>
+      </c>
+      <c r="F11" s="1">
+        <v>25000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="3">
+        <v>110</v>
+      </c>
+      <c r="C12" s="4">
+        <v>3.82</v>
+      </c>
+      <c r="D12" s="4">
+        <v>5.5869999999999997</v>
+      </c>
+      <c r="E12" s="4">
+        <v>9.407</v>
+      </c>
+      <c r="F12" s="1">
+        <v>27500000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3">
+        <v>120</v>
+      </c>
+      <c r="C13" s="4">
+        <v>3.9940000000000002</v>
+      </c>
+      <c r="D13" s="4">
+        <v>6.133</v>
+      </c>
+      <c r="E13" s="4">
+        <v>10.127000000000001</v>
+      </c>
+      <c r="F13" s="1">
+        <v>30000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F14" s="1">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3">
+        <v>10</v>
+      </c>
+      <c r="C15" s="4">
+        <v>5.5E-2</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>5.5E-2</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="3">
+        <v>20</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.107</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.107</v>
+      </c>
+      <c r="F16" s="1">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="3">
+        <v>40</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.215</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.215</v>
+      </c>
+      <c r="F17" s="1">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="3">
+        <v>50</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="F18" s="1">
+        <v>12500000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="3">
+        <v>60</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="F19" s="1">
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="3">
+        <v>70</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.372</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.372</v>
+      </c>
+      <c r="F20" s="1">
+        <v>17500000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3">
+        <v>80</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="F21" s="1">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="3">
+        <v>90</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0.495</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0.495</v>
+      </c>
+      <c r="F22" s="1">
+        <v>22500000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="3">
+        <v>100</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F23" s="1">
+        <v>25000000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="3">
+        <v>110</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="F24" s="1">
+        <v>27500000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="3">
+        <v>120</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="F25" s="1">
+        <v>30000000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0.128</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0.128</v>
+      </c>
+      <c r="F26" s="1">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="3">
+        <v>10</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="F27" s="1">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="3">
+        <v>20</v>
+      </c>
+      <c r="C28" s="4">
+        <v>2.6619999999999999</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0</v>
+      </c>
+      <c r="E28" s="4">
+        <v>2.6619999999999999</v>
+      </c>
+      <c r="F28" s="1">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="3">
+        <v>40</v>
+      </c>
+      <c r="C29" s="4">
+        <v>5.1539999999999999</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0</v>
+      </c>
+      <c r="E29" s="4">
+        <v>5.1539999999999999</v>
+      </c>
+      <c r="F29" s="1">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="3">
+        <v>50</v>
+      </c>
+      <c r="C30" s="4">
+        <v>3.0750000000000002</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0</v>
+      </c>
+      <c r="E30" s="4">
+        <v>3.0750000000000002</v>
+      </c>
+      <c r="F30" s="1">
+        <v>12500000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="3">
+        <v>60</v>
+      </c>
+      <c r="C31" s="4">
+        <v>4.056</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0</v>
+      </c>
+      <c r="E31" s="4">
+        <v>4.056</v>
+      </c>
+      <c r="F31" s="1">
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="3">
+        <v>70</v>
+      </c>
+      <c r="C32" s="4">
+        <v>10.552</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0</v>
+      </c>
+      <c r="E32" s="4">
+        <v>10.552</v>
+      </c>
+      <c r="F32" s="1">
+        <v>17500000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="3">
+        <v>80</v>
+      </c>
+      <c r="C33" s="4">
+        <v>4.7309999999999999</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0</v>
+      </c>
+      <c r="E33" s="4">
+        <v>4.7309999999999999</v>
+      </c>
+      <c r="F33" s="1">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="3">
+        <v>90</v>
+      </c>
+      <c r="C34" s="4">
+        <v>6.3559999999999999</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0</v>
+      </c>
+      <c r="E34" s="4">
+        <v>6.3559999999999999</v>
+      </c>
+      <c r="F34" s="1">
+        <v>22500000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="3">
+        <v>100</v>
+      </c>
+      <c r="C35" s="4">
+        <v>14.879</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0</v>
+      </c>
+      <c r="E35" s="4">
+        <v>14.879</v>
+      </c>
+      <c r="F35" s="1">
+        <v>25000000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="3">
+        <v>110</v>
+      </c>
+      <c r="C36" s="4">
+        <v>7.1189999999999998</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0</v>
+      </c>
+      <c r="E36" s="4">
+        <v>7.1189999999999998</v>
+      </c>
+      <c r="F36" s="1">
+        <v>27500000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="3">
+        <v>120</v>
+      </c>
+      <c r="C37" s="4">
+        <v>6.2709999999999999</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0</v>
+      </c>
+      <c r="E37" s="4">
+        <v>6.2709999999999999</v>
+      </c>
+      <c r="F37" s="1">
+        <v>30000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:F37">
+    <sortCondition ref="A2:A37"/>
+    <sortCondition ref="B2:B37"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.128</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.128</v>
+      </c>
+      <c r="F2" s="1">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3">
+        <v>20</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2.778</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2.778</v>
+      </c>
+      <c r="F4" s="1">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3">
+        <v>40</v>
+      </c>
+      <c r="C5" s="4">
+        <v>5.1980000000000004</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>5.1980000000000004</v>
+      </c>
+      <c r="F5" s="1">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3">
+        <v>50</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2.8450000000000002</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2.8450000000000002</v>
+      </c>
+      <c r="F6" s="1">
+        <v>12500000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3">
+        <v>60</v>
+      </c>
+      <c r="C7" s="4">
+        <v>9.1349999999999998</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>9.1349999999999998</v>
+      </c>
+      <c r="F7" s="1">
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>70</v>
+      </c>
+      <c r="C8" s="4">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="F8" s="1">
+        <v>17500000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3">
+        <v>80</v>
+      </c>
+      <c r="C9" s="4">
+        <v>4.7220000000000004</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>4.7220000000000004</v>
+      </c>
+      <c r="F9" s="1">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3">
+        <v>90</v>
+      </c>
+      <c r="C10" s="4">
+        <v>12.348000000000001</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>12.348000000000001</v>
+      </c>
+      <c r="F10" s="1">
+        <v>22500000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3">
+        <v>100</v>
+      </c>
+      <c r="C11" s="4">
+        <v>6.8730000000000002</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>6.8730000000000002</v>
+      </c>
+      <c r="F11" s="1">
+        <v>25000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="3">
+        <v>110</v>
+      </c>
+      <c r="C12" s="4">
+        <v>8.2720000000000002</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>8.2720000000000002</v>
+      </c>
+      <c r="F12" s="1">
+        <v>27500000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="3">
+        <v>120</v>
+      </c>
+      <c r="C13" s="4">
+        <v>7.3010000000000002</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>7.3010000000000002</v>
+      </c>
+      <c r="F13" s="1">
+        <v>30000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="F14" s="1">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3">
+        <v>10</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="3">
+        <v>20</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1.004</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1.641</v>
+      </c>
+      <c r="F16" s="1">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="3">
+        <v>40</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1.2689999999999999</v>
+      </c>
+      <c r="D17" s="4">
+        <v>2</v>
+      </c>
+      <c r="E17" s="4">
+        <v>3.27</v>
+      </c>
+      <c r="F17" s="1">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="3">
+        <v>50</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1.581</v>
+      </c>
+      <c r="D18" s="4">
+        <v>2.5150000000000001</v>
+      </c>
+      <c r="E18" s="4">
+        <v>4.0960000000000001</v>
+      </c>
+      <c r="F18" s="1">
+        <v>12500000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="3">
+        <v>60</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1.97</v>
+      </c>
+      <c r="D19" s="4">
+        <v>3.0470000000000002</v>
+      </c>
+      <c r="E19" s="4">
+        <v>5.0170000000000003</v>
+      </c>
+      <c r="F19" s="1">
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="3">
+        <v>70</v>
+      </c>
+      <c r="C20" s="4">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="D20" s="4">
+        <v>3.5529999999999999</v>
+      </c>
+      <c r="E20" s="4">
+        <v>5.8129999999999997</v>
+      </c>
+      <c r="F20" s="1">
+        <v>17500000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="3">
+        <v>80</v>
+      </c>
+      <c r="C21" s="4">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="D21" s="4">
+        <v>4.0659999999999998</v>
+      </c>
+      <c r="E21" s="4">
+        <v>6.5960000000000001</v>
+      </c>
+      <c r="F21" s="1">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="3">
+        <v>90</v>
+      </c>
+      <c r="C22" s="4">
+        <v>2.8580000000000001</v>
+      </c>
+      <c r="D22" s="4">
+        <v>4.6079999999999997</v>
+      </c>
+      <c r="E22" s="4">
+        <v>7.4660000000000002</v>
+      </c>
+      <c r="F22" s="1">
+        <v>22500000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="3">
+        <v>100</v>
+      </c>
+      <c r="C23" s="4">
+        <v>3.3620000000000001</v>
+      </c>
+      <c r="D23" s="4">
+        <v>5.085</v>
+      </c>
+      <c r="E23" s="4">
+        <v>8.4480000000000004</v>
+      </c>
+      <c r="F23" s="1">
+        <v>25000000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="3">
+        <v>110</v>
+      </c>
+      <c r="C24" s="4">
+        <v>3.597</v>
+      </c>
+      <c r="D24" s="4">
+        <v>5.6459999999999999</v>
+      </c>
+      <c r="E24" s="4">
+        <v>9.2420000000000009</v>
+      </c>
+      <c r="F24" s="1">
+        <v>27500000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="3">
+        <v>120</v>
+      </c>
+      <c r="C25" s="4">
+        <v>4.1959999999999997</v>
+      </c>
+      <c r="D25" s="4">
+        <v>6.165</v>
+      </c>
+      <c r="E25" s="4">
+        <v>10.361000000000001</v>
+      </c>
+      <c r="F25" s="1">
+        <v>30000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:F25">
+    <sortCondition ref="A2:A25"/>
+    <sortCondition ref="B2:B25"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.9296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.9296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.53125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="F2" s="1">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3">
+        <v>20</v>
+      </c>
+      <c r="C4" s="4">
+        <v>3.0750000000000002</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>3.0750000000000002</v>
+      </c>
+      <c r="F4" s="1">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3">
+        <v>40</v>
+      </c>
+      <c r="C5" s="4">
+        <v>5.508</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>5.508</v>
+      </c>
+      <c r="F5" s="1">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3">
+        <v>50</v>
+      </c>
+      <c r="C6" s="4">
+        <v>3.0550000000000002</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>3.0550000000000002</v>
+      </c>
+      <c r="F6" s="1">
+        <v>12500000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3">
+        <v>60</v>
+      </c>
+      <c r="C7" s="4">
+        <v>9.7780000000000005</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>9.7780000000000005</v>
+      </c>
+      <c r="F7" s="1">
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>70</v>
+      </c>
+      <c r="C8" s="4">
+        <v>4.2270000000000003</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>4.2270000000000003</v>
+      </c>
+      <c r="F8" s="1">
+        <v>17500000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3">
+        <v>80</v>
+      </c>
+      <c r="C9" s="4">
+        <v>4.88</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>4.88</v>
+      </c>
+      <c r="F9" s="1">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3">
+        <v>90</v>
+      </c>
+      <c r="C10" s="4">
+        <v>13.226000000000001</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>13.226000000000001</v>
+      </c>
+      <c r="F10" s="1">
+        <v>22500000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3">
+        <v>100</v>
+      </c>
+      <c r="C11" s="4">
+        <v>7.0279999999999996</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>7.0279999999999996</v>
+      </c>
+      <c r="F11" s="1">
+        <v>25000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="3">
+        <v>110</v>
+      </c>
+      <c r="C12" s="4">
+        <v>8.7070000000000007</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>8.7070000000000007</v>
+      </c>
+      <c r="F12" s="1">
+        <v>27500000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="3">
+        <v>120</v>
+      </c>
+      <c r="C13" s="4">
+        <v>7.7480000000000002</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>7.7480000000000002</v>
+      </c>
+      <c r="F13" s="1">
+        <v>30000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="D14" s="4">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.182</v>
+      </c>
+      <c r="F14" s="1">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3">
+        <v>10</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.441</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1.127</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="3">
+        <v>20</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1.3009999999999999</v>
+      </c>
+      <c r="E16" s="4">
+        <v>2.125</v>
+      </c>
+      <c r="F16" s="1">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="3">
+        <v>40</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1.5980000000000001</v>
+      </c>
+      <c r="D17" s="4">
+        <v>2.5609999999999999</v>
+      </c>
+      <c r="E17" s="4">
+        <v>4.16</v>
+      </c>
+      <c r="F17" s="1">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="3">
+        <v>50</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1.952</v>
+      </c>
+      <c r="D18" s="4">
+        <v>3.1539999999999999</v>
+      </c>
+      <c r="E18" s="4">
+        <v>5.1059999999999999</v>
+      </c>
+      <c r="F18" s="1">
+        <v>12500000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="3">
+        <v>60</v>
+      </c>
+      <c r="C19" s="4">
+        <v>2.1880000000000002</v>
+      </c>
+      <c r="D19" s="4">
+        <v>3.7120000000000002</v>
+      </c>
+      <c r="E19" s="4">
+        <v>5.9</v>
+      </c>
+      <c r="F19" s="1">
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="3">
+        <v>70</v>
+      </c>
+      <c r="C20" s="4">
+        <v>2.722</v>
+      </c>
+      <c r="D20" s="4">
+        <v>4.3680000000000003</v>
+      </c>
+      <c r="E20" s="4">
+        <v>7.0910000000000002</v>
+      </c>
+      <c r="F20" s="1">
+        <v>17500000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="3">
+        <v>80</v>
+      </c>
+      <c r="C21" s="4">
+        <v>3.09</v>
+      </c>
+      <c r="D21" s="4">
+        <v>4.9989999999999997</v>
+      </c>
+      <c r="E21" s="4">
+        <v>8.0890000000000004</v>
+      </c>
+      <c r="F21" s="1">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="3">
+        <v>90</v>
+      </c>
+      <c r="C22" s="4">
+        <v>3.4649999999999999</v>
+      </c>
+      <c r="D22" s="4">
+        <v>5.6719999999999997</v>
+      </c>
+      <c r="E22" s="4">
+        <v>9.1370000000000005</v>
+      </c>
+      <c r="F22" s="1">
+        <v>22500000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="3">
+        <v>100</v>
+      </c>
+      <c r="C23" s="4">
+        <v>3.8580000000000001</v>
+      </c>
+      <c r="D23" s="4">
+        <v>6.2569999999999997</v>
+      </c>
+      <c r="E23" s="4">
+        <v>10.115</v>
+      </c>
+      <c r="F23" s="1">
+        <v>25000000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="3">
+        <v>110</v>
+      </c>
+      <c r="C24" s="4">
+        <v>4.1349999999999998</v>
+      </c>
+      <c r="D24" s="4">
+        <v>6.8019999999999996</v>
+      </c>
+      <c r="E24" s="4">
+        <v>10.938000000000001</v>
+      </c>
+      <c r="F24" s="1">
+        <v>27500000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="3">
+        <v>120</v>
+      </c>
+      <c r="C25" s="4">
+        <v>4.915</v>
+      </c>
+      <c r="D25" s="4">
+        <v>7.4980000000000002</v>
+      </c>
+      <c r="E25" s="4">
+        <v>12.413</v>
+      </c>
+      <c r="F25" s="1">
+        <v>30000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:F25">
+    <sortCondition ref="A2:A25"/>
+    <sortCondition ref="B2:B25"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.9296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.9296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.53125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D2" s="4">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="F2" s="1">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3">
+        <v>20</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1.6439999999999999</v>
+      </c>
+      <c r="F4" s="1">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3">
+        <v>40</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1.276</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1.9990000000000001</v>
+      </c>
+      <c r="E5" s="4">
+        <v>3.2749999999999999</v>
+      </c>
+      <c r="F5" s="1">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3">
+        <v>50</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1.593</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2.516</v>
+      </c>
+      <c r="E6" s="4">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="F6" s="1">
+        <v>12500000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3">
+        <v>60</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1.915</v>
+      </c>
+      <c r="D7" s="4">
+        <v>3.0720000000000001</v>
+      </c>
+      <c r="E7" s="4">
+        <v>4.9870000000000001</v>
+      </c>
+      <c r="F7" s="1">
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3">
+        <v>70</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2.23</v>
+      </c>
+      <c r="D8" s="4">
+        <v>3.5609999999999999</v>
+      </c>
+      <c r="E8" s="4">
+        <v>5.7910000000000004</v>
+      </c>
+      <c r="F8" s="1">
+        <v>17500000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3">
+        <v>80</v>
+      </c>
+      <c r="C9" s="4">
+        <v>2.5630000000000002</v>
+      </c>
+      <c r="D9" s="4">
+        <v>4.0549999999999997</v>
+      </c>
+      <c r="E9" s="4">
+        <v>6.6180000000000003</v>
+      </c>
+      <c r="F9" s="1">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3">
+        <v>90</v>
+      </c>
+      <c r="C10" s="4">
+        <v>3.202</v>
+      </c>
+      <c r="D10" s="4">
+        <v>4.601</v>
+      </c>
+      <c r="E10" s="4">
+        <v>7.8029999999999999</v>
+      </c>
+      <c r="F10" s="1">
+        <v>22500000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="3">
+        <v>100</v>
+      </c>
+      <c r="C11" s="4">
+        <v>3.448</v>
+      </c>
+      <c r="D11" s="4">
+        <v>5.0739999999999998</v>
+      </c>
+      <c r="E11" s="4">
+        <v>8.5220000000000002</v>
+      </c>
+      <c r="F11" s="1">
+        <v>25000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="3">
+        <v>110</v>
+      </c>
+      <c r="C12" s="4">
+        <v>3.82</v>
+      </c>
+      <c r="D12" s="4">
+        <v>5.5869999999999997</v>
+      </c>
+      <c r="E12" s="4">
+        <v>9.407</v>
+      </c>
+      <c r="F12" s="1">
+        <v>27500000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3">
+        <v>120</v>
+      </c>
+      <c r="C13" s="4">
+        <v>3.9940000000000002</v>
+      </c>
+      <c r="D13" s="4">
+        <v>6.133</v>
+      </c>
+      <c r="E13" s="4">
+        <v>10.127000000000001</v>
+      </c>
+      <c r="F13" s="1">
+        <v>30000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F14" s="1">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3">
+        <v>10</v>
+      </c>
+      <c r="C15" s="4">
+        <v>5.5E-2</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>5.5E-2</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="3">
+        <v>20</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.107</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.107</v>
+      </c>
+      <c r="F16" s="1">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="3">
+        <v>40</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.215</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.215</v>
+      </c>
+      <c r="F17" s="1">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="3">
+        <v>50</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="F18" s="1">
+        <v>12500000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="3">
+        <v>60</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="F19" s="1">
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="3">
+        <v>70</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.372</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.372</v>
+      </c>
+      <c r="F20" s="1">
+        <v>17500000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3">
+        <v>80</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="F21" s="1">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="3">
+        <v>90</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0.495</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0.495</v>
+      </c>
+      <c r="F22" s="1">
+        <v>22500000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="3">
+        <v>100</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F23" s="1">
+        <v>25000000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="3">
+        <v>110</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="F24" s="1">
+        <v>27500000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="3">
+        <v>120</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="F25" s="1">
+        <v>30000000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0.128</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0.128</v>
+      </c>
+      <c r="F26" s="1">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="3">
+        <v>10</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="F27" s="1">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="3">
+        <v>20</v>
+      </c>
+      <c r="C28" s="4">
+        <v>2.6619999999999999</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0</v>
+      </c>
+      <c r="E28" s="4">
+        <v>2.6619999999999999</v>
+      </c>
+      <c r="F28" s="1">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="3">
+        <v>40</v>
+      </c>
+      <c r="C29" s="4">
+        <v>5.1539999999999999</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0</v>
+      </c>
+      <c r="E29" s="4">
+        <v>5.1539999999999999</v>
+      </c>
+      <c r="F29" s="1">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="3">
+        <v>50</v>
+      </c>
+      <c r="C30" s="4">
+        <v>3.0750000000000002</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0</v>
+      </c>
+      <c r="E30" s="4">
+        <v>3.0750000000000002</v>
+      </c>
+      <c r="F30" s="1">
+        <v>12500000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="3">
+        <v>60</v>
+      </c>
+      <c r="C31" s="4">
+        <v>4.056</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0</v>
+      </c>
+      <c r="E31" s="4">
+        <v>4.056</v>
+      </c>
+      <c r="F31" s="1">
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="3">
+        <v>70</v>
+      </c>
+      <c r="C32" s="4">
+        <v>10.552</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0</v>
+      </c>
+      <c r="E32" s="4">
+        <v>10.552</v>
+      </c>
+      <c r="F32" s="1">
+        <v>17500000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="3">
+        <v>80</v>
+      </c>
+      <c r="C33" s="4">
+        <v>4.7309999999999999</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0</v>
+      </c>
+      <c r="E33" s="4">
+        <v>4.7309999999999999</v>
+      </c>
+      <c r="F33" s="1">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="3">
+        <v>90</v>
+      </c>
+      <c r="C34" s="4">
+        <v>6.3559999999999999</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0</v>
+      </c>
+      <c r="E34" s="4">
+        <v>6.3559999999999999</v>
+      </c>
+      <c r="F34" s="1">
+        <v>22500000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="3">
+        <v>100</v>
+      </c>
+      <c r="C35" s="4">
+        <v>14.879</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0</v>
+      </c>
+      <c r="E35" s="4">
+        <v>14.879</v>
+      </c>
+      <c r="F35" s="1">
+        <v>25000000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="3">
+        <v>110</v>
+      </c>
+      <c r="C36" s="4">
+        <v>7.1189999999999998</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0</v>
+      </c>
+      <c r="E36" s="4">
+        <v>7.1189999999999998</v>
+      </c>
+      <c r="F36" s="1">
+        <v>27500000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="3">
+        <v>120</v>
+      </c>
+      <c r="C37" s="4">
+        <v>6.2709999999999999</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0</v>
+      </c>
+      <c r="E37" s="4">
+        <v>6.2709999999999999</v>
+      </c>
+      <c r="F37" s="1">
+        <v>30000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:F25">
+    <sortCondition ref="A2:A25"/>
+    <sortCondition ref="B2:B25"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.86328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.796875" customWidth="1"/>
-    <col min="6" max="7" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.06640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="3">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B6" s="1">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3">
-        <v>250000</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0.157</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4">
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4">
+      <c r="B7" s="1">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3591</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3599</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3814</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3640</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B4" s="3">
-        <v>2500000</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0.63600000000000001</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1.1240000000000001</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4">
-        <v>0.68100000000000005</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0.443</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5">
+      <c r="B12" s="1">
+        <v>6489</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3759</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>3772</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>3599</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>3571</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2767</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>3615</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>3603</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>3930</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <v>3663</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B5" s="3">
-        <v>5000000</v>
-      </c>
-      <c r="C5" s="4">
-        <v>2.839</v>
-      </c>
-      <c r="D5" s="4">
-        <v>2.0529999999999999</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4">
-        <v>1.2589999999999999</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0.79300000000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6">
-        <v>50</v>
-      </c>
-      <c r="B6" s="3">
-        <v>12500000</v>
-      </c>
-      <c r="C6" s="4">
-        <v>6.7770000000000001</v>
-      </c>
-      <c r="D6" s="4">
-        <v>10.840999999999999</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4">
-        <v>3.1509999999999998</v>
-      </c>
-      <c r="G6" s="4">
-        <v>7.6890000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <v>75</v>
-      </c>
-      <c r="B7" s="3">
-        <v>18750000</v>
-      </c>
-      <c r="C7" s="4">
-        <v>4.74</v>
-      </c>
-      <c r="D7" s="4">
-        <v>9.9019999999999992</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4">
-        <v>4.6319999999999997</v>
-      </c>
-      <c r="G7" s="4">
-        <v>5.27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <v>100</v>
-      </c>
-      <c r="B8" s="3">
-        <v>25000000</v>
-      </c>
-      <c r="C8" s="4">
-        <v>12.683999999999999</v>
-      </c>
-      <c r="D8" s="4">
-        <v>10.121</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4">
-        <v>6.2560000000000002</v>
-      </c>
-      <c r="G8" s="4">
-        <v>3.8660000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="3">
-        <v>6770</v>
+      <c r="B22" s="1">
+        <v>3509</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <v>3508</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25" s="3">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1833</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/dev-topics-codingexams/dev-topics-evernote-max-operators/analysis/performance.xlsx
+++ b/dev-topics-codingexams/dev-topics-evernote-max-operators/analysis/performance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="120" windowWidth="22290" windowHeight="9218" activeTab="4"/>
+    <workbookView xWindow="300" yWindow="120" windowWidth="22290" windowHeight="9218" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Raw" sheetId="5" r:id="rId1"/>
@@ -274,8 +274,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.8162343204032012E-2"/>
-          <c:y val="1.8411439419267324E-2"/>
+          <c:x val="3.5258457723459417E-2"/>
+          <c:y val="1.2554924045914465E-2"/>
           <c:w val="0.91958005249343833"/>
           <c:h val="0.92318941830660628"/>
         </c:manualLayout>
@@ -821,11 +821,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="125180544"/>
-        <c:axId val="125195008"/>
+        <c:axId val="127820544"/>
+        <c:axId val="127822464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="125180544"/>
+        <c:axId val="127820544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120"/>
@@ -860,12 +860,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125195008"/>
+        <c:crossAx val="127822464"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="125195008"/>
+        <c:axId val="127822464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15"/>
@@ -896,7 +896,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125180544"/>
+        <c:crossAx val="127820544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -1184,11 +1184,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="124930688"/>
-        <c:axId val="124936576"/>
+        <c:axId val="127517440"/>
+        <c:axId val="127518976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="124930688"/>
+        <c:axId val="127517440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="23"/>
@@ -1199,13 +1199,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124936576"/>
+        <c:crossAx val="127518976"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="124936576"/>
+        <c:axId val="127518976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6500"/>
@@ -1217,7 +1217,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124930688"/>
+        <c:crossAx val="127517440"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="500"/>
@@ -1333,15 +1333,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="runperf" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="runperf_2" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="runperf_1" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="runperf" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3454,7 +3454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -4221,7 +4221,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
